--- a/アルバム一覧_結合テスト.xlsx
+++ b/アルバム一覧_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B44D003-813B-4D91-97CF-1A27C4D225E9}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB592A77-E9C9-4E4A-8597-30A25489F060}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アルバム一覧画面" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="131">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1805,6 +1805,16 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3020,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3072,7 +3082,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3127,7 +3137,7 @@
         <v>117</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3165,7 +3175,7 @@
         <v>118</v>
       </c>
       <c r="G10" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3216,7 +3226,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3254,7 +3264,7 @@
         <v>119</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -3292,7 +3302,7 @@
         <v>120</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -3330,7 +3340,7 @@
         <v>121</v>
       </c>
       <c r="G19" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -3381,7 +3391,7 @@
         <v>122</v>
       </c>
       <c r="G22" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -3419,7 +3429,7 @@
         <v>123</v>
       </c>
       <c r="G24" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -3455,7 +3465,7 @@
         <v>124</v>
       </c>
       <c r="G26" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -3485,13 +3495,13 @@
         <v>106</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G28" s="4">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -3544,7 +3554,7 @@
         <v>85</v>
       </c>
       <c r="G31" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>73</v>
@@ -3579,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A6412-A799-4858-A174-7B2B54E9207F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3631,7 +3641,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3686,7 +3696,7 @@
         <v>91</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3716,13 +3726,13 @@
         <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G10" s="4">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3775,7 +3785,7 @@
         <v>85</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3811,7 +3821,7 @@
         <v>127</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
